--- a/hardware/Anycubic_Trigorilla/4Max_Pro_Firmware_Custom/LCD Serial Command Mapping/TFT-2560CommunicationProtocol.xlsx
+++ b/hardware/Anycubic_Trigorilla/4Max_Pro_Firmware_Custom/LCD Serial Command Mapping/TFT-2560CommunicationProtocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishnkr\Downloads\Anycubic_i3_Mega-master\LCD Serial Command Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\3DPrint\hardware\Anycubic_Trigorilla\4Max_Pro_Firmware_Custom\LCD Serial Command Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A1CD21-AB47-489F-9225-3804C3E24F9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C175650B-FA4B-4286-AEA8-3685992C5E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="2148" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="143">
   <si>
     <t>Command Description</t>
   </si>
@@ -10038,8 +10038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -10053,7 +10053,7 @@
     <col min="7" max="26" width="7.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="52.2">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -10552,7 +10552,9 @@
         <v>77</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>78</v>
       </c>
@@ -10564,7 +10566,9 @@
         <v>79</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>80</v>
       </c>
@@ -10581,7 +10585,9 @@
       <c r="C34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>

--- a/hardware/Anycubic_Trigorilla/4Max_Pro_Firmware_Custom/LCD Serial Command Mapping/TFT-2560CommunicationProtocol.xlsx
+++ b/hardware/Anycubic_Trigorilla/4Max_Pro_Firmware_Custom/LCD Serial Command Mapping/TFT-2560CommunicationProtocol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\3DPrint\hardware\Anycubic_Trigorilla\4Max_Pro_Firmware_Custom\LCD Serial Command Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\3DPrint\hardware\Anycubic_Trigorilla\4Max_Pro_Firmware_Custom\LCD Serial Command Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C175650B-FA4B-4286-AEA8-3685992C5E42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B469C65-8628-4A98-915C-62F4C7FF3258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2148" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="147">
   <si>
     <t>Command Description</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>A25</t>
+  </si>
+  <si>
+    <t>J20</t>
+  </si>
+  <si>
+    <t>File Open Success</t>
+  </si>
+  <si>
+    <t>File Open Fail</t>
+  </si>
+  <si>
+    <t>J21</t>
   </si>
 </sst>
 </file>
@@ -999,15 +1011,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" customWidth="1"/>
-    <col min="5" max="5" width="0.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="26" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="0.125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="26" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1">
@@ -1026,7 +1038,7 @@
       <c r="E2" s="26"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:7" s="21" customFormat="1" ht="52.2">
+    <row r="3" spans="1:7" s="21" customFormat="1" ht="56.25">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -10036,24 +10048,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="26" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="43.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="26" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="21" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="18.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -10547,72 +10559,68 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="13.5" customHeight="1">
+    <row r="32" spans="1:26" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" customHeight="1">
+        <v>143</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -10625,10 +10633,10 @@
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>6</v>
@@ -10640,155 +10648,155 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="A38" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>3</v>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" ht="27" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>84</v>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+    <row r="42" spans="1:6" ht="27" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="D42" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="24"/>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>3</v>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>84</v>
+    <row r="47" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>6</v>
@@ -10801,10 +10809,10 @@
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>6</v>
@@ -10817,74 +10825,72 @@
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="5">
-        <v>100</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="16"/>
+      <c r="D51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="F52" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="D52" s="5">
+        <v>100</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>6</v>
@@ -10899,10 +10905,10 @@
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>6</v>
@@ -10915,10 +10921,10 @@
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>6</v>
@@ -10926,73 +10932,75 @@
       <c r="D56" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="E56" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="24"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
+      <c r="A57" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2"/>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A59" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>84</v>
+    <row r="60" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>6</v>
@@ -11005,10 +11013,10 @@
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>6</v>
@@ -11021,10 +11029,10 @@
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>6</v>
@@ -11037,10 +11045,10 @@
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>6</v>
@@ -11053,10 +11061,10 @@
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>6</v>
@@ -11069,10 +11077,10 @@
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>6</v>
@@ -11085,10 +11093,10 @@
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>6</v>
@@ -11100,20 +11108,36 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="A68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="A69" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1">
       <c r="A70" s="3"/>
@@ -18563,15 +18587,31 @@
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
     </row>
+    <row r="1001" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+    </row>
+    <row r="1002" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A1002" s="3"/>
+      <c r="B1002" s="3"/>
+      <c r="C1002" s="3"/>
+      <c r="D1002" s="3"/>
+      <c r="E1002" s="3"/>
+      <c r="F1002" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E52:F52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
